--- a/OTRAS_ENG - York/data/service.xlsx
+++ b/OTRAS_ENG - York/data/service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\OTRAS_ENG - York\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693A9CF-E3D8-4C5F-B0D9-990AFB1FDD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9A252-E1E5-45DD-BF6F-FDCDB754A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Universidad Nacional de Colombia</t>
   </si>
   <si>
-    <t>Human Ethology Bulletin</t>
-  </si>
-  <si>
     <t>Journal of Nonverbal Behavior</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>Philosophical Transactions of the Royal Society B</t>
-  </si>
-  <si>
-    <t>Summa Psicológica</t>
   </si>
   <si>
     <t>Evolution and Human Behavior</t>
@@ -614,11 +608,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,24 +999,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,35 +1024,35 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,22 +1060,22 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,12 +1083,12 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,41 +1101,28 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
     </row>
